--- a/xlsx/TEMPLATE.xlsx
+++ b/xlsx/TEMPLATE.xlsx
@@ -1276,6 +1276,7 @@
     <xf numFmtId="185" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1288,7 +1289,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1626,10 +1626,10 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="E1" s="160" t="s">
+      <c r="E1" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="160"/>
+      <c r="F1" s="161"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -1773,7 +1773,7 @@
         <f t="shared" ref="U3:U9" si="11">$T$15-T3</f>
         <v>6825.6091199999992</v>
       </c>
-      <c r="V3" s="161"/>
+      <c r="V3" s="162"/>
       <c r="W3" s="24">
         <f t="shared" ref="W3:W9" si="12">F3-S3</f>
         <v>2730.2436479999997</v>
@@ -1855,7 +1855,7 @@
         <f t="shared" si="11"/>
         <v>6267.6823541666672</v>
       </c>
-      <c r="V4" s="161"/>
+      <c r="V4" s="162"/>
       <c r="W4" s="24">
         <f t="shared" si="12"/>
         <v>3760.6094125000009</v>
@@ -1937,7 +1937,7 @@
         <f t="shared" si="11"/>
         <v>6972.9409599999999</v>
       </c>
-      <c r="V5" s="161"/>
+      <c r="V5" s="162"/>
       <c r="W5" s="24">
         <f t="shared" si="12"/>
         <v>5578.3527679999997</v>
@@ -2019,7 +2019,7 @@
         <f t="shared" si="11"/>
         <v>5861.2865375000001</v>
       </c>
-      <c r="V6" s="161"/>
+      <c r="V6" s="162"/>
       <c r="W6" s="24">
         <f t="shared" si="12"/>
         <v>6361.2865375000001</v>
@@ -2101,7 +2101,7 @@
         <f t="shared" si="11"/>
         <v>5888.8542500000012</v>
       </c>
-      <c r="V7" s="161"/>
+      <c r="V7" s="162"/>
       <c r="W7" s="24">
         <f t="shared" si="12"/>
         <v>7666.625100000002</v>
@@ -2183,7 +2183,7 @@
         <f t="shared" si="11"/>
         <v>5687.1169017857155</v>
       </c>
-      <c r="V8" s="161"/>
+      <c r="V8" s="162"/>
       <c r="W8" s="24">
         <f t="shared" si="12"/>
         <v>8661.9636625000003</v>
@@ -2265,7 +2265,7 @@
         <f t="shared" si="11"/>
         <v>5729.5638906249997</v>
       </c>
-      <c r="V9" s="161"/>
+      <c r="V9" s="162"/>
       <c r="W9" s="24">
         <f t="shared" si="12"/>
         <v>9967.3022249999995</v>
@@ -2276,7 +2276,7 @@
       <c r="A10" s="2"/>
       <c r="N10" s="34"/>
       <c r="O10" s="34"/>
-      <c r="V10" s="161"/>
+      <c r="V10" s="162"/>
       <c r="X10" s="35"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -2300,7 +2300,7 @@
         <f>T15-T11</f>
         <v>6176.1505734396269</v>
       </c>
-      <c r="V11" s="161"/>
+      <c r="V11" s="162"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -2318,7 +2318,7 @@
         <f>T15-T12</f>
         <v>5859.9581021116082</v>
       </c>
-      <c r="V12" s="161"/>
+      <c r="V12" s="162"/>
       <c r="W12" s="23"/>
       <c r="X12" s="23"/>
     </row>
@@ -2338,7 +2338,7 @@
         <f>T15-T13</f>
         <v>2539.9371531674115</v>
       </c>
-      <c r="V13" s="161"/>
+      <c r="V13" s="162"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -2352,7 +2352,7 @@
         <f>G4</f>
         <v>12500</v>
       </c>
-      <c r="V14" s="161"/>
+      <c r="V14" s="162"/>
       <c r="W14" s="41" t="s">
         <v>32</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>12500</v>
       </c>
       <c r="U15" s="23"/>
-      <c r="V15" s="161"/>
+      <c r="V15" s="162"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -2389,7 +2389,7 @@
       <c r="L16" s="47">
         <v>400</v>
       </c>
-      <c r="V16" s="161"/>
+      <c r="V16" s="162"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -2408,7 +2408,7 @@
       <c r="L17" s="48">
         <v>0.05</v>
       </c>
-      <c r="V17" s="161"/>
+      <c r="V17" s="162"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="Q18" s="23"/>
       <c r="S18" s="35"/>
-      <c r="V18" s="161"/>
+      <c r="V18" s="162"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
@@ -2445,19 +2445,19 @@
       <c r="E19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="162" t="s">
+      <c r="L19" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="M19" s="162"/>
-      <c r="N19" s="162"/>
-      <c r="O19" s="162"/>
-      <c r="P19" s="162"/>
-      <c r="Q19" s="162"/>
-      <c r="R19" s="162"/>
-      <c r="S19" s="162"/>
-      <c r="T19" s="162"/>
-      <c r="U19" s="162"/>
-      <c r="V19" s="161"/>
+      <c r="M19" s="163"/>
+      <c r="N19" s="163"/>
+      <c r="O19" s="163"/>
+      <c r="P19" s="163"/>
+      <c r="Q19" s="163"/>
+      <c r="R19" s="163"/>
+      <c r="S19" s="163"/>
+      <c r="T19" s="163"/>
+      <c r="U19" s="163"/>
+      <c r="V19" s="162"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
@@ -5910,9 +5910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6322,7 +6320,7 @@
       </c>
       <c r="G13" s="70"/>
       <c r="H13" s="116"/>
-      <c r="J13" s="163" t="s">
+      <c r="J13" s="164" t="s">
         <v>60</v>
       </c>
       <c r="K13" s="117" t="s">
@@ -6346,7 +6344,7 @@
       <c r="G14" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="J14" s="163"/>
+      <c r="J14" s="164"/>
       <c r="K14" s="124" t="s">
         <v>65</v>
       </c>
@@ -6616,7 +6614,7 @@
       <c r="N26" s="146" t="s">
         <v>74</v>
       </c>
-      <c r="O26" s="164"/>
+      <c r="O26" s="160"/>
       <c r="P26" s="147"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>

--- a/xlsx/TEMPLATE.xlsx
+++ b/xlsx/TEMPLATE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Alap" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
   <si>
     <t>lemez hossz</t>
   </si>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t xml:space="preserve">km díj </t>
+  </si>
+  <si>
+    <t>CD 30/60</t>
+  </si>
+  <si>
+    <t>UD 30</t>
   </si>
 </sst>
 </file>
@@ -366,7 +372,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -768,23 +774,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -797,16 +790,14 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -1033,32 +1024,35 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1368,1196 +1362,1208 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="107"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="103"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="103"/>
-      <c r="B1" s="102" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="108"/>
+      <c r="B1" s="109" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="104" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="108">
+      <c r="B2" s="107">
         <v>6668</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="105" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="109">
+      <c r="B3" s="104">
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="105" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="109">
+      <c r="B4" s="104">
         <v>13335</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="105" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="109">
+      <c r="B5" s="104">
         <v>17535</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="105" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="109">
+      <c r="B6" s="104">
         <v>20803</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="105" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="109">
+      <c r="B7" s="104">
         <v>24270</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="105" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="109">
+      <c r="B8" s="104">
         <v>27737</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="105" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="109">
+      <c r="B9" s="104">
         <v>1833</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="105" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="109">
+      <c r="B10" s="104">
         <v>1323</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="105" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="109">
+      <c r="B11" s="104">
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="105" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="109">
+      <c r="B12" s="104">
         <v>506</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="105" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="109">
+      <c r="B13" s="104">
         <v>880</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="105" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="109">
+      <c r="B14" s="104">
         <v>33600</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="105" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="109">
+      <c r="B15" s="104">
         <v>39900</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="105" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="109">
+      <c r="B16" s="104">
         <v>44100</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="105" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="109">
+      <c r="B17" s="104">
         <v>50400</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="105" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="109">
+      <c r="B18" s="104">
         <v>57750</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="105" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="109">
+      <c r="B19" s="104">
         <v>68250</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="105" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="109">
+      <c r="B20" s="104">
         <v>73500</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="105" t="s">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="109">
+      <c r="B21" s="104">
         <v>82950</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="105" t="s">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="109">
+      <c r="B22" s="104">
         <v>92400</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="105" t="s">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="109">
+      <c r="B23" s="104">
         <v>98700</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="105" t="s">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="109">
+      <c r="B24" s="104">
         <v>102900</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="105" t="s">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="109">
+      <c r="B25" s="104">
         <v>8000</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="106" t="s">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="110">
+      <c r="B26" s="104">
         <v>310</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="104">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="105">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2570,36 +2576,36 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="31.33203125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="12.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.33203125" style="1" customWidth="1"/>
-    <col min="20" max="33" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="31.28515625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="12.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.28515625" style="1" customWidth="1"/>
+    <col min="20" max="33" width="8.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="G1" s="11"/>
       <c r="H1" s="12"/>
       <c r="I1" s="13"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -2647,7 +2653,7 @@
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>40</v>
       </c>
@@ -2686,7 +2692,7 @@
       <c r="AF3" s="37"/>
       <c r="AG3" s="2"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="38">
         <v>90</v>
       </c>
@@ -2724,7 +2730,7 @@
       <c r="AF4" s="37"/>
       <c r="AG4" s="2"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>140</v>
       </c>
@@ -2762,7 +2768,7 @@
       <c r="AF5" s="37"/>
       <c r="AG5" s="2"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="38">
         <v>190</v>
       </c>
@@ -2800,7 +2806,7 @@
       <c r="AF6" s="37"/>
       <c r="AG6" s="2"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>240</v>
       </c>
@@ -2838,7 +2844,7 @@
       <c r="AF7" s="37"/>
       <c r="AG7" s="2"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="38">
         <v>290</v>
       </c>
@@ -2876,7 +2882,7 @@
       <c r="AF8" s="37"/>
       <c r="AG8" s="2"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>340</v>
       </c>
@@ -2914,7 +2920,7 @@
       <c r="AF9" s="37"/>
       <c r="AG9" s="2"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="F10" s="4"/>
       <c r="G10" s="11"/>
       <c r="I10" s="2"/>
@@ -2928,7 +2934,7 @@
       <c r="AF10" s="37"/>
       <c r="AG10" s="2"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D11" s="11" t="s">
         <v>19</v>
       </c>
@@ -2943,7 +2949,7 @@
       <c r="AF11" s="37"/>
       <c r="AG11" s="2"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" s="52">
         <v>26</v>
       </c>
@@ -2963,7 +2969,7 @@
       <c r="AF12" s="37"/>
       <c r="AG12" s="2"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" s="52">
         <v>22</v>
       </c>
@@ -2978,7 +2984,7 @@
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="57"/>
-      <c r="J13" s="111" t="s">
+      <c r="J13" s="112" t="s">
         <v>22</v>
       </c>
       <c r="K13" s="58" t="s">
@@ -2998,11 +3004,11 @@
       <c r="AF13" s="37"/>
       <c r="AG13" s="2"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="G14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="111"/>
+      <c r="J14" s="112"/>
       <c r="K14" s="65" t="s">
         <v>27</v>
       </c>
@@ -3020,7 +3026,7 @@
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="F15" s="69" t="s">
         <v>29</v>
       </c>
@@ -3039,7 +3045,7 @@
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="F16" s="74" t="s">
         <v>30</v>
       </c>
@@ -3062,7 +3068,7 @@
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3084,7 +3090,7 @@
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3106,7 +3112,7 @@
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3128,7 +3134,7 @@
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3150,7 +3156,7 @@
       <c r="AF20" s="2"/>
       <c r="AG20" s="37"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="82"/>
       <c r="B21" s="82"/>
       <c r="C21" s="82"/>
@@ -3172,7 +3178,7 @@
       <c r="AF21" s="2"/>
       <c r="AG21" s="37"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3195,7 +3201,7 @@
       <c r="AF22" s="2"/>
       <c r="AG22" s="37"/>
     </row>
-    <row r="23" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3218,7 +3224,7 @@
       <c r="AF23" s="2"/>
       <c r="AG23" s="37"/>
     </row>
-    <row r="24" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -3237,7 +3243,7 @@
       <c r="AF24" s="2"/>
       <c r="AG24" s="37"/>
     </row>
-    <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3257,7 +3263,7 @@
       <c r="AF25" s="2"/>
       <c r="AG25" s="37"/>
     </row>
-    <row r="26" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3278,7 +3284,7 @@
       <c r="AF26" s="2"/>
       <c r="AG26" s="37"/>
     </row>
-    <row r="27" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -3296,7 +3302,7 @@
       <c r="AF27" s="2"/>
       <c r="AG27" s="37"/>
     </row>
-    <row r="28" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -3312,7 +3318,7 @@
       <c r="AF28" s="2"/>
       <c r="AG28" s="37"/>
     </row>
-    <row r="29" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3330,7 +3336,7 @@
       <c r="AF29" s="2"/>
       <c r="AG29" s="37"/>
     </row>
-    <row r="30" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3348,7 +3354,7 @@
       <c r="AF30" s="2"/>
       <c r="AG30" s="37"/>
     </row>
-    <row r="31" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3368,7 +3374,7 @@
       <c r="AF31" s="2"/>
       <c r="AG31" s="2"/>
     </row>
-    <row r="32" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3388,7 +3394,7 @@
       <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
     </row>
-    <row r="33" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3408,7 +3414,7 @@
       <c r="AF33" s="2"/>
       <c r="AG33" s="37"/>
     </row>
-    <row r="34" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3428,7 +3434,7 @@
       <c r="AF34" s="2"/>
       <c r="AG34" s="97"/>
     </row>
-    <row r="35" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G35" s="11"/>
       <c r="I35" s="64"/>
       <c r="L35" s="2"/>
@@ -3438,1024 +3444,1024 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
-    <row r="36" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N36" s="2"/>
       <c r="O36" s="37"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
-    <row r="37" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M37" s="37"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
-    <row r="38" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
     </row>
-    <row r="46" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J13:J14"/>
@@ -4481,11 +4487,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/xlsx/TEMPLATE.xlsx
+++ b/xlsx/TEMPLATE.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Alap" sheetId="1" r:id="rId1"/>
     <sheet name="Ajánlat részletek" sheetId="2" r:id="rId2"/>
     <sheet name="Tervrajz" sheetId="3" r:id="rId3"/>
+    <sheet name="Harmatpont segédlet" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
   <si>
     <t>lemez hossz</t>
   </si>
@@ -230,13 +231,49 @@
   </si>
   <si>
     <t>UD 30</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Hőmérséklet:</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>fi^2</t>
+  </si>
+  <si>
+    <t>Páratartalom:</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>fi^1</t>
+  </si>
+  <si>
+    <t>fi^0</t>
+  </si>
+  <si>
+    <t>a=</t>
+  </si>
+  <si>
+    <t>b=</t>
+  </si>
+  <si>
+    <t>th</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="19">
+  <numFmts count="21">
     <numFmt numFmtId="164" formatCode="#,##0\ [$ cm]"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0&quot; Ft&quot;_-;\-* #,##0&quot; Ft&quot;_-;_-* \-??&quot; Ft&quot;_-;_-@"/>
     <numFmt numFmtId="166" formatCode="#,##0\ [$ db]"/>
@@ -256,8 +293,10 @@
     <numFmt numFmtId="180" formatCode="_-* #,##0\ [$Ft-40E]_-;\-* #,##0\ [$Ft-40E]_-;_-* \-??\ [$Ft-40E]_-;_-@"/>
     <numFmt numFmtId="181" formatCode="#,##0\ [$ km]"/>
     <numFmt numFmtId="182" formatCode="#\ ###\ ###\ ###\ ###&quot; Ft&quot;"/>
+    <numFmt numFmtId="183" formatCode="#.0&quot; °C&quot;"/>
+    <numFmt numFmtId="184" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,8 +348,45 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,8 +447,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -793,11 +881,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -1054,6 +1177,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="9" fillId="11" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="183" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="183" fontId="10" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="10" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1061,7 +1224,15 @@
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1177,6 +1348,67 @@
         <a:ln w="0">
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>546</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190377</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Kép 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="-100000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-100000" contrast="-100000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="2505075"/>
+          <a:ext cx="7353846" cy="990477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2984,7 +3216,7 @@
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="57"/>
-      <c r="J13" s="112" t="s">
+      <c r="J13" s="130" t="s">
         <v>22</v>
       </c>
       <c r="K13" s="58" t="s">
@@ -3008,7 +3240,7 @@
       <c r="G14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="112"/>
+      <c r="J14" s="130"/>
       <c r="K14" s="65" t="s">
         <v>27</v>
       </c>
@@ -4494,4 +4726,1482 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="113" customWidth="1"/>
+    <col min="2" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="24" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="112"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112" t="str">
+        <f>IF($P$3=C2*100,COLUMN(A1),"")</f>
+        <v/>
+      </c>
+      <c r="D1" s="112" t="str">
+        <f t="shared" ref="D1:M1" si="0">IF($P$3=D2*100,COLUMN(B1),"")</f>
+        <v/>
+      </c>
+      <c r="E1" s="112">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F1" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G1" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H1" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I1" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J1" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K1" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L1" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M1" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V1" s="129"/>
+      <c r="W1" s="129" t="s">
+        <v>68</v>
+      </c>
+      <c r="X1" s="129" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="114">
+        <v>0.45</v>
+      </c>
+      <c r="D2" s="114">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="114">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F2" s="114">
+        <v>0.6</v>
+      </c>
+      <c r="G2" s="114">
+        <v>0.65</v>
+      </c>
+      <c r="H2" s="114">
+        <v>0.7</v>
+      </c>
+      <c r="I2" s="114">
+        <v>0.75</v>
+      </c>
+      <c r="J2" s="114">
+        <v>0.8</v>
+      </c>
+      <c r="K2" s="114">
+        <v>0.85</v>
+      </c>
+      <c r="L2" s="114">
+        <v>0.9</v>
+      </c>
+      <c r="M2" s="114">
+        <v>0.95</v>
+      </c>
+      <c r="O2" s="115" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="127">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="116" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="129" t="s">
+        <v>72</v>
+      </c>
+      <c r="W2" s="129">
+        <v>-2.0000000000000002E-5</v>
+      </c>
+      <c r="X2" s="129">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="113" t="str">
+        <f>IF($P$2=B3,ROW(A1),"")</f>
+        <v/>
+      </c>
+      <c r="B3" s="117">
+        <v>2</v>
+      </c>
+      <c r="C3" s="118">
+        <v>-7.8</v>
+      </c>
+      <c r="D3" s="118">
+        <v>-6.6</v>
+      </c>
+      <c r="E3" s="118">
+        <v>-5.4</v>
+      </c>
+      <c r="F3" s="118">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="G3" s="118">
+        <v>-3.2</v>
+      </c>
+      <c r="H3" s="118">
+        <v>-2.5</v>
+      </c>
+      <c r="I3" s="118">
+        <v>-1.8</v>
+      </c>
+      <c r="J3" s="118">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="118">
+        <v>-0.3</v>
+      </c>
+      <c r="L3" s="118">
+        <v>0.5</v>
+      </c>
+      <c r="M3" s="118">
+        <v>1.2</v>
+      </c>
+      <c r="O3" s="119" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" s="128">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="120" t="s">
+        <v>74</v>
+      </c>
+      <c r="V3" s="129" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3" s="129">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="X3" s="129">
+        <v>0.3306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="113" t="str">
+        <f t="shared" ref="A4:A32" si="1">IF($P$2=B4,ROW(A2),"")</f>
+        <v/>
+      </c>
+      <c r="B4" s="121">
+        <v>4</v>
+      </c>
+      <c r="C4" s="122">
+        <v>-6.1</v>
+      </c>
+      <c r="D4" s="122">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="E4" s="122">
+        <v>-3.7</v>
+      </c>
+      <c r="F4" s="122">
+        <v>-2.6</v>
+      </c>
+      <c r="G4" s="122">
+        <v>-1.8</v>
+      </c>
+      <c r="H4" s="122">
+        <v>-0.9</v>
+      </c>
+      <c r="I4" s="122">
+        <v>-0.1</v>
+      </c>
+      <c r="J4" s="122">
+        <v>0.8</v>
+      </c>
+      <c r="K4" s="122">
+        <v>1.6</v>
+      </c>
+      <c r="L4" s="122">
+        <v>2.4</v>
+      </c>
+      <c r="M4" s="122">
+        <v>3.2</v>
+      </c>
+      <c r="O4" s="115" t="str">
+        <f>IF(ISERROR(W10),"Becsült h","H")&amp;"armatponti hőmérséklet:"</f>
+        <v>Harmatponti hőmérséklet:</v>
+      </c>
+      <c r="P4" s="123">
+        <f>IFERROR(W10,W7*P2+W8)</f>
+        <v>10.7</v>
+      </c>
+      <c r="Q4" s="116" t="s">
+        <v>71</v>
+      </c>
+      <c r="V4" s="129" t="s">
+        <v>76</v>
+      </c>
+      <c r="W4" s="129">
+        <v>0.72130000000000005</v>
+      </c>
+      <c r="X4" s="129">
+        <v>-22.812999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B5" s="121">
+        <v>6</v>
+      </c>
+      <c r="C5" s="122">
+        <v>-4.5</v>
+      </c>
+      <c r="D5" s="122">
+        <v>-3.1</v>
+      </c>
+      <c r="E5" s="122">
+        <v>-2.1</v>
+      </c>
+      <c r="F5" s="122">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G5" s="122">
+        <v>-0.1</v>
+      </c>
+      <c r="H5" s="122">
+        <v>0.9</v>
+      </c>
+      <c r="I5" s="122">
+        <v>1.9</v>
+      </c>
+      <c r="J5" s="122">
+        <v>2.7</v>
+      </c>
+      <c r="K5" s="122">
+        <v>3.6</v>
+      </c>
+      <c r="L5" s="122">
+        <v>4.5</v>
+      </c>
+      <c r="M5" s="122">
+        <v>5.4</v>
+      </c>
+      <c r="V5" s="129" t="str">
+        <f>"a="&amp;W2&amp;"*"&amp;P3&amp;"^2"&amp;"+"&amp;W3&amp;"*"&amp;P3&amp;"+"&amp;W4</f>
+        <v>a=-0.00002*55^2+0.0047*55+0.7213</v>
+      </c>
+      <c r="W5" s="129"/>
+      <c r="X5" s="129"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B6" s="121">
+        <v>8</v>
+      </c>
+      <c r="C6" s="122">
+        <v>-2.7</v>
+      </c>
+      <c r="D6" s="122">
+        <v>-1.6</v>
+      </c>
+      <c r="E6" s="122">
+        <v>-0.4</v>
+      </c>
+      <c r="F6" s="122">
+        <v>0.7</v>
+      </c>
+      <c r="G6" s="122">
+        <v>1.8</v>
+      </c>
+      <c r="H6" s="122">
+        <v>2.8</v>
+      </c>
+      <c r="I6" s="122">
+        <v>3.8</v>
+      </c>
+      <c r="J6" s="122">
+        <v>4.8</v>
+      </c>
+      <c r="K6" s="122">
+        <v>5.7</v>
+      </c>
+      <c r="L6" s="122">
+        <v>6.5</v>
+      </c>
+      <c r="M6" s="122">
+        <v>7.3</v>
+      </c>
+      <c r="V6" s="129" t="str">
+        <f>"b="&amp;X2&amp;"*"&amp;P3&amp;"^2"&amp;"+"&amp;X3&amp;"*"&amp;P3&amp;""&amp;X4</f>
+        <v>b=-0.001*55^2+0.3306*55-22.813</v>
+      </c>
+      <c r="W6" s="129"/>
+      <c r="X6" s="129"/>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B7" s="124">
+        <v>10</v>
+      </c>
+      <c r="C7" s="125">
+        <v>-1.3</v>
+      </c>
+      <c r="D7" s="125">
+        <v>0</v>
+      </c>
+      <c r="E7" s="125">
+        <v>1.3</v>
+      </c>
+      <c r="F7" s="125">
+        <v>2.5</v>
+      </c>
+      <c r="G7" s="125">
+        <v>3.7</v>
+      </c>
+      <c r="H7" s="125">
+        <v>4.8</v>
+      </c>
+      <c r="I7" s="125">
+        <v>5.8</v>
+      </c>
+      <c r="J7" s="125">
+        <v>6.8</v>
+      </c>
+      <c r="K7" s="125">
+        <v>7.7</v>
+      </c>
+      <c r="L7" s="125">
+        <v>8.5</v>
+      </c>
+      <c r="M7" s="125">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="V7" s="129" t="s">
+        <v>77</v>
+      </c>
+      <c r="W7" s="129">
+        <f>TRUNC(W2*P3*P3+W3*P3+W4,4)</f>
+        <v>0.91930000000000001</v>
+      </c>
+      <c r="X7" s="129"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B8" s="117">
+        <v>11</v>
+      </c>
+      <c r="C8" s="118">
+        <v>-0.4</v>
+      </c>
+      <c r="D8" s="118">
+        <v>1</v>
+      </c>
+      <c r="E8" s="118">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F8" s="118">
+        <v>3.6</v>
+      </c>
+      <c r="G8" s="118">
+        <v>4.7</v>
+      </c>
+      <c r="H8" s="118">
+        <v>5.8</v>
+      </c>
+      <c r="I8" s="118">
+        <v>6.7</v>
+      </c>
+      <c r="J8" s="118">
+        <v>7.7</v>
+      </c>
+      <c r="K8" s="118">
+        <v>8.6</v>
+      </c>
+      <c r="L8" s="118">
+        <v>9.4</v>
+      </c>
+      <c r="M8" s="118">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="V8" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="W8" s="129">
+        <f>TRUNC(X2*P3*P3+X3*P3+X4,4)</f>
+        <v>-7.6550000000000002</v>
+      </c>
+      <c r="X8" s="129"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B9" s="121">
+        <v>12</v>
+      </c>
+      <c r="C9" s="122">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="122">
+        <v>1.8</v>
+      </c>
+      <c r="E9" s="122">
+        <v>3.2</v>
+      </c>
+      <c r="F9" s="122">
+        <v>4.5</v>
+      </c>
+      <c r="G9" s="122">
+        <v>5.6</v>
+      </c>
+      <c r="H9" s="122">
+        <v>6.7</v>
+      </c>
+      <c r="I9" s="122">
+        <v>7.8</v>
+      </c>
+      <c r="J9" s="122">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K9" s="122">
+        <v>9.6</v>
+      </c>
+      <c r="L9" s="122">
+        <v>10.5</v>
+      </c>
+      <c r="M9" s="122">
+        <v>11.3</v>
+      </c>
+      <c r="V9" s="129" t="str">
+        <f>"Th="&amp;W7&amp;"*"&amp;P2&amp;IF(W8&gt;0,"+","")&amp;W8</f>
+        <v>Th=0.9193*20-7.655</v>
+      </c>
+      <c r="W9" s="129"/>
+      <c r="X9" s="129"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B10" s="121">
+        <v>13</v>
+      </c>
+      <c r="C10" s="122">
+        <v>1.3</v>
+      </c>
+      <c r="D10" s="122">
+        <v>2.8</v>
+      </c>
+      <c r="E10" s="122">
+        <v>4.2</v>
+      </c>
+      <c r="F10" s="122">
+        <v>5.4</v>
+      </c>
+      <c r="G10" s="122">
+        <v>6.6</v>
+      </c>
+      <c r="H10" s="122">
+        <v>7.7</v>
+      </c>
+      <c r="I10" s="122">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J10" s="122">
+        <v>9.6</v>
+      </c>
+      <c r="K10" s="122">
+        <v>10.5</v>
+      </c>
+      <c r="L10" s="122">
+        <v>11.4</v>
+      </c>
+      <c r="M10" s="122">
+        <v>12.2</v>
+      </c>
+      <c r="V10" s="129" t="s">
+        <v>79</v>
+      </c>
+      <c r="W10" s="129">
+        <f>INDEX(C3:M32,IF(MAX(A:A)&gt;0,MAX(A:A),""),IF(MAX(B1:M1)&gt;0,MAX(B1:M1),""))</f>
+        <v>10.7</v>
+      </c>
+      <c r="X10" s="129"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B11" s="121">
+        <v>14</v>
+      </c>
+      <c r="C11" s="122">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D11" s="122">
+        <v>3.8</v>
+      </c>
+      <c r="E11" s="122">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F11" s="122">
+        <v>6.4</v>
+      </c>
+      <c r="G11" s="122">
+        <v>7.6</v>
+      </c>
+      <c r="H11" s="122">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I11" s="122">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J11" s="122">
+        <v>10.7</v>
+      </c>
+      <c r="K11" s="122">
+        <v>11.6</v>
+      </c>
+      <c r="L11" s="122">
+        <v>12.6</v>
+      </c>
+      <c r="M11" s="122">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B12" s="124">
+        <v>15</v>
+      </c>
+      <c r="C12" s="125">
+        <v>3.1</v>
+      </c>
+      <c r="D12" s="125">
+        <v>4.7</v>
+      </c>
+      <c r="E12" s="125">
+        <v>6.1</v>
+      </c>
+      <c r="F12" s="125">
+        <v>7.4</v>
+      </c>
+      <c r="G12" s="125">
+        <v>8.5</v>
+      </c>
+      <c r="H12" s="125">
+        <v>9.6</v>
+      </c>
+      <c r="I12" s="125">
+        <v>10.7</v>
+      </c>
+      <c r="J12" s="125">
+        <v>11.7</v>
+      </c>
+      <c r="K12" s="125">
+        <v>12.6</v>
+      </c>
+      <c r="L12" s="125">
+        <v>13.5</v>
+      </c>
+      <c r="M12" s="125">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B13" s="117">
+        <v>16</v>
+      </c>
+      <c r="C13" s="118">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D13" s="118">
+        <v>5.6</v>
+      </c>
+      <c r="E13" s="118">
+        <v>7</v>
+      </c>
+      <c r="F13" s="118">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G13" s="118">
+        <v>9.5</v>
+      </c>
+      <c r="H13" s="118">
+        <v>10.6</v>
+      </c>
+      <c r="I13" s="118">
+        <v>11.7</v>
+      </c>
+      <c r="J13" s="118">
+        <v>12.7</v>
+      </c>
+      <c r="K13" s="118">
+        <v>13.6</v>
+      </c>
+      <c r="L13" s="118">
+        <v>14.6</v>
+      </c>
+      <c r="M13" s="118">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B14" s="121">
+        <v>17</v>
+      </c>
+      <c r="C14" s="122">
+        <v>5</v>
+      </c>
+      <c r="D14" s="122">
+        <v>6.5</v>
+      </c>
+      <c r="E14" s="122">
+        <v>7.9</v>
+      </c>
+      <c r="F14" s="122">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G14" s="122">
+        <v>10.4</v>
+      </c>
+      <c r="H14" s="122">
+        <v>11.5</v>
+      </c>
+      <c r="I14" s="122">
+        <v>12.5</v>
+      </c>
+      <c r="J14" s="122">
+        <v>13.6</v>
+      </c>
+      <c r="K14" s="122">
+        <v>14.5</v>
+      </c>
+      <c r="L14" s="122">
+        <v>15.4</v>
+      </c>
+      <c r="M14" s="122">
+        <v>16.2</v>
+      </c>
+      <c r="P14" s="126"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B15" s="121">
+        <v>18</v>
+      </c>
+      <c r="C15" s="122">
+        <v>5.9</v>
+      </c>
+      <c r="D15" s="122">
+        <v>7.4</v>
+      </c>
+      <c r="E15" s="122">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F15" s="122">
+        <v>10.1</v>
+      </c>
+      <c r="G15" s="122">
+        <v>11.3</v>
+      </c>
+      <c r="H15" s="122">
+        <v>12.4</v>
+      </c>
+      <c r="I15" s="122">
+        <v>13.5</v>
+      </c>
+      <c r="J15" s="122">
+        <v>14.6</v>
+      </c>
+      <c r="K15" s="122">
+        <v>15.4</v>
+      </c>
+      <c r="L15" s="122">
+        <v>16.3</v>
+      </c>
+      <c r="M15" s="122">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B16" s="121">
+        <v>19</v>
+      </c>
+      <c r="C16" s="122">
+        <v>6.8</v>
+      </c>
+      <c r="D16" s="122">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E16" s="122">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F16" s="122">
+        <v>11.1</v>
+      </c>
+      <c r="G16" s="122">
+        <v>12.3</v>
+      </c>
+      <c r="H16" s="122">
+        <v>13.4</v>
+      </c>
+      <c r="I16" s="122">
+        <v>14.5</v>
+      </c>
+      <c r="J16" s="122">
+        <v>15.5</v>
+      </c>
+      <c r="K16" s="122">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L16" s="122">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="M16" s="122">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="113">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="124">
+        <v>20</v>
+      </c>
+      <c r="C17" s="125">
+        <v>7.7</v>
+      </c>
+      <c r="D17" s="125">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E17" s="125">
+        <v>10.7</v>
+      </c>
+      <c r="F17" s="125">
+        <v>12</v>
+      </c>
+      <c r="G17" s="125">
+        <v>13.2</v>
+      </c>
+      <c r="H17" s="125">
+        <v>14.4</v>
+      </c>
+      <c r="I17" s="125">
+        <v>15.5</v>
+      </c>
+      <c r="J17" s="125">
+        <v>16.5</v>
+      </c>
+      <c r="K17" s="125">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="L17" s="125">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="M17" s="125">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B18" s="117">
+        <v>21</v>
+      </c>
+      <c r="C18" s="118">
+        <v>8.6</v>
+      </c>
+      <c r="D18" s="118">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E18" s="118">
+        <v>11.6</v>
+      </c>
+      <c r="F18" s="118">
+        <v>12.9</v>
+      </c>
+      <c r="G18" s="118">
+        <v>14.2</v>
+      </c>
+      <c r="H18" s="118">
+        <v>15.4</v>
+      </c>
+      <c r="I18" s="118">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="J18" s="118">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="K18" s="118">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="L18" s="118">
+        <v>19.3</v>
+      </c>
+      <c r="M18" s="118">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B19" s="121">
+        <v>22</v>
+      </c>
+      <c r="C19" s="122">
+        <v>9.5</v>
+      </c>
+      <c r="D19" s="122">
+        <v>11.2</v>
+      </c>
+      <c r="E19" s="122">
+        <v>12.5</v>
+      </c>
+      <c r="F19" s="122">
+        <v>13.9</v>
+      </c>
+      <c r="G19" s="122">
+        <v>15.2</v>
+      </c>
+      <c r="H19" s="122">
+        <v>16.3</v>
+      </c>
+      <c r="I19" s="122">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="J19" s="122">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="K19" s="122">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="L19" s="122">
+        <v>20.3</v>
+      </c>
+      <c r="M19" s="122">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B20" s="121">
+        <v>23</v>
+      </c>
+      <c r="C20" s="122">
+        <v>10.4</v>
+      </c>
+      <c r="D20" s="122">
+        <v>12</v>
+      </c>
+      <c r="E20" s="122">
+        <v>13.5</v>
+      </c>
+      <c r="F20" s="122">
+        <v>14.9</v>
+      </c>
+      <c r="G20" s="122">
+        <v>16</v>
+      </c>
+      <c r="H20" s="122">
+        <v>17.3</v>
+      </c>
+      <c r="I20" s="122">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="J20" s="122">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="K20" s="122">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="L20" s="122">
+        <v>21.3</v>
+      </c>
+      <c r="M20" s="122">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B21" s="121">
+        <v>24</v>
+      </c>
+      <c r="C21" s="122">
+        <v>11.3</v>
+      </c>
+      <c r="D21" s="122">
+        <v>12.9</v>
+      </c>
+      <c r="E21" s="122">
+        <v>14.4</v>
+      </c>
+      <c r="F21" s="122">
+        <v>15.7</v>
+      </c>
+      <c r="G21" s="122">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="H21" s="122">
+        <v>18.2</v>
+      </c>
+      <c r="I21" s="122">
+        <v>19.2</v>
+      </c>
+      <c r="J21" s="122">
+        <v>20.3</v>
+      </c>
+      <c r="K21" s="122">
+        <v>21.4</v>
+      </c>
+      <c r="L21" s="122">
+        <v>22.3</v>
+      </c>
+      <c r="M21" s="122">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B22" s="124">
+        <v>25</v>
+      </c>
+      <c r="C22" s="125">
+        <v>12.2</v>
+      </c>
+      <c r="D22" s="125">
+        <v>13.8</v>
+      </c>
+      <c r="E22" s="125">
+        <v>15.4</v>
+      </c>
+      <c r="F22" s="125">
+        <v>16.7</v>
+      </c>
+      <c r="G22" s="125">
+        <v>18</v>
+      </c>
+      <c r="H22" s="125">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="I22" s="125">
+        <v>20.2</v>
+      </c>
+      <c r="J22" s="125">
+        <v>21.4</v>
+      </c>
+      <c r="K22" s="125">
+        <v>22.3</v>
+      </c>
+      <c r="L22" s="125">
+        <v>23.3</v>
+      </c>
+      <c r="M22" s="125">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B23" s="117">
+        <v>26</v>
+      </c>
+      <c r="C23" s="118">
+        <v>13.2</v>
+      </c>
+      <c r="D23" s="118">
+        <v>14.8</v>
+      </c>
+      <c r="E23" s="118">
+        <v>16.3</v>
+      </c>
+      <c r="F23" s="118">
+        <v>17.7</v>
+      </c>
+      <c r="G23" s="118">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H23" s="118">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I23" s="118">
+        <v>21.3</v>
+      </c>
+      <c r="J23" s="118">
+        <v>22.3</v>
+      </c>
+      <c r="K23" s="118">
+        <v>23.3</v>
+      </c>
+      <c r="L23" s="118">
+        <v>24.3</v>
+      </c>
+      <c r="M23" s="118">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B24" s="121">
+        <v>27</v>
+      </c>
+      <c r="C24" s="122">
+        <v>14.1</v>
+      </c>
+      <c r="D24" s="122">
+        <v>15.7</v>
+      </c>
+      <c r="E24" s="122">
+        <v>17.2</v>
+      </c>
+      <c r="F24" s="122">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G24" s="122">
+        <v>19.8</v>
+      </c>
+      <c r="H24" s="122">
+        <v>21.1</v>
+      </c>
+      <c r="I24" s="122">
+        <v>22.2</v>
+      </c>
+      <c r="J24" s="122">
+        <v>23.3</v>
+      </c>
+      <c r="K24" s="122">
+        <v>24.3</v>
+      </c>
+      <c r="L24" s="122">
+        <v>25.2</v>
+      </c>
+      <c r="M24" s="122">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B25" s="121">
+        <v>28</v>
+      </c>
+      <c r="C25" s="122">
+        <v>15</v>
+      </c>
+      <c r="D25" s="122">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E25" s="122">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F25" s="122">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="G25" s="122">
+        <v>20.9</v>
+      </c>
+      <c r="H25" s="122">
+        <v>22.1</v>
+      </c>
+      <c r="I25" s="122">
+        <v>23.2</v>
+      </c>
+      <c r="J25" s="122">
+        <v>24.3</v>
+      </c>
+      <c r="K25" s="122">
+        <v>25.3</v>
+      </c>
+      <c r="L25" s="122">
+        <v>26.2</v>
+      </c>
+      <c r="M25" s="122">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B26" s="121">
+        <v>29</v>
+      </c>
+      <c r="C26" s="122">
+        <v>15.9</v>
+      </c>
+      <c r="D26" s="122">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E26" s="122">
+        <v>19</v>
+      </c>
+      <c r="F26" s="122">
+        <v>20.5</v>
+      </c>
+      <c r="G26" s="122">
+        <v>21.8</v>
+      </c>
+      <c r="H26" s="122">
+        <v>23</v>
+      </c>
+      <c r="I26" s="122">
+        <v>24.2</v>
+      </c>
+      <c r="J26" s="122">
+        <v>25.2</v>
+      </c>
+      <c r="K26" s="122">
+        <v>26.2</v>
+      </c>
+      <c r="L26" s="122">
+        <v>27.3</v>
+      </c>
+      <c r="M26" s="122">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B27" s="124">
+        <v>30</v>
+      </c>
+      <c r="C27" s="125">
+        <v>16.8</v>
+      </c>
+      <c r="D27" s="125">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E27" s="125">
+        <v>20</v>
+      </c>
+      <c r="F27" s="125">
+        <v>21.4</v>
+      </c>
+      <c r="G27" s="125">
+        <v>23.7</v>
+      </c>
+      <c r="H27" s="125">
+        <v>23.9</v>
+      </c>
+      <c r="I27" s="125">
+        <v>25.1</v>
+      </c>
+      <c r="J27" s="125">
+        <v>26.1</v>
+      </c>
+      <c r="K27" s="125">
+        <v>27.2</v>
+      </c>
+      <c r="L27" s="125">
+        <v>28.2</v>
+      </c>
+      <c r="M27" s="125">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B28" s="117">
+        <v>32</v>
+      </c>
+      <c r="C28" s="118">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D28" s="118">
+        <v>20.3</v>
+      </c>
+      <c r="E28" s="118">
+        <v>21.9</v>
+      </c>
+      <c r="F28" s="118">
+        <v>23.3</v>
+      </c>
+      <c r="G28" s="118">
+        <v>24.7</v>
+      </c>
+      <c r="H28" s="118">
+        <v>25.8</v>
+      </c>
+      <c r="I28" s="118">
+        <v>27.1</v>
+      </c>
+      <c r="J28" s="118">
+        <v>28.2</v>
+      </c>
+      <c r="K28" s="118">
+        <v>29.2</v>
+      </c>
+      <c r="L28" s="118">
+        <v>30.2</v>
+      </c>
+      <c r="M28" s="118">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B29" s="121">
+        <v>34</v>
+      </c>
+      <c r="C29" s="122">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="D29" s="122">
+        <v>22.2</v>
+      </c>
+      <c r="E29" s="122">
+        <v>23.8</v>
+      </c>
+      <c r="F29" s="122">
+        <v>25.2</v>
+      </c>
+      <c r="G29" s="122">
+        <v>26.5</v>
+      </c>
+      <c r="H29" s="122">
+        <v>27.9</v>
+      </c>
+      <c r="I29" s="122">
+        <v>28.9</v>
+      </c>
+      <c r="J29" s="122">
+        <v>30.1</v>
+      </c>
+      <c r="K29" s="122">
+        <v>31.2</v>
+      </c>
+      <c r="L29" s="122">
+        <v>32.1</v>
+      </c>
+      <c r="M29" s="122">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B30" s="121">
+        <v>36</v>
+      </c>
+      <c r="C30" s="122">
+        <v>22.2</v>
+      </c>
+      <c r="D30" s="122">
+        <v>24.1</v>
+      </c>
+      <c r="E30" s="122">
+        <v>25.5</v>
+      </c>
+      <c r="F30" s="122">
+        <v>27</v>
+      </c>
+      <c r="G30" s="122">
+        <v>28.4</v>
+      </c>
+      <c r="H30" s="122">
+        <v>29.7</v>
+      </c>
+      <c r="I30" s="122">
+        <v>30.9</v>
+      </c>
+      <c r="J30" s="122">
+        <v>32</v>
+      </c>
+      <c r="K30" s="122">
+        <v>33.1</v>
+      </c>
+      <c r="L30" s="122">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="M30" s="122">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B31" s="121">
+        <v>38</v>
+      </c>
+      <c r="C31" s="122">
+        <v>24</v>
+      </c>
+      <c r="D31" s="122">
+        <v>25.7</v>
+      </c>
+      <c r="E31" s="122">
+        <v>27.4</v>
+      </c>
+      <c r="F31" s="122">
+        <v>28.9</v>
+      </c>
+      <c r="G31" s="122">
+        <v>30.3</v>
+      </c>
+      <c r="H31" s="122">
+        <v>31.6</v>
+      </c>
+      <c r="I31" s="122">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="J31" s="122">
+        <v>34</v>
+      </c>
+      <c r="K31" s="122">
+        <v>35</v>
+      </c>
+      <c r="L31" s="122">
+        <v>36.1</v>
+      </c>
+      <c r="M31" s="122">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B32" s="124">
+        <v>40</v>
+      </c>
+      <c r="C32" s="125">
+        <v>25.8</v>
+      </c>
+      <c r="D32" s="125">
+        <v>27.7</v>
+      </c>
+      <c r="E32" s="125">
+        <v>29.2</v>
+      </c>
+      <c r="F32" s="125">
+        <v>30.8</v>
+      </c>
+      <c r="G32" s="125">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H32" s="125">
+        <v>33.5</v>
+      </c>
+      <c r="I32" s="125">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="J32" s="125">
+        <v>35.9</v>
+      </c>
+      <c r="K32" s="125">
+        <v>37</v>
+      </c>
+      <c r="L32" s="125">
+        <v>38.1</v>
+      </c>
+      <c r="M32" s="125">
+        <v>39.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="zeeQ/KofhS/O+Gaz9yP27yspeoQrQyNZhv7J41EtlP2owrm+lySrr+pO9ZVe6A89p0TNEIWbmFu3D4VgjfdgNQ==" saltValue="Fel1yGry909WFodQ6BH2/w==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <conditionalFormatting sqref="C3:M32">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND($B3=$P$2,C$2*100=$P$3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>